--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rashmit\Practice\telstra\job-portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0802351D-3155-425F-B127-46C9D830424B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B439C6C-069E-44B6-B118-043064AE34D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{18E56060-F66E-4E66-9827-C6A6AE6E141F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Scenario</t>
   </si>
@@ -37,45 +37,9 @@
     <t>Condition</t>
   </si>
   <si>
-    <t>Job List</t>
-  </si>
-  <si>
-    <t>Job Seekers can see job list</t>
-  </si>
-  <si>
-    <t>Job list visible on page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apply button </t>
-  </si>
-  <si>
-    <t>User can apply on any Job present in List</t>
-  </si>
-  <si>
-    <t>User able to apply Manuall/Form</t>
-  </si>
-  <si>
-    <t>Logged in Seekers</t>
-  </si>
-  <si>
-    <t>can verify details</t>
-  </si>
-  <si>
-    <t>application details Visible</t>
-  </si>
-  <si>
-    <t>can Edit details</t>
-  </si>
-  <si>
-    <t>able to edit details</t>
-  </si>
-  <si>
     <t>Note: Thi is Just basic design</t>
   </si>
   <si>
-    <t>For actual we need to have Application server</t>
-  </si>
-  <si>
     <t>Load balance</t>
   </si>
   <si>
@@ -86,6 +50,75 @@
   </si>
   <si>
     <t>Exception Handeling</t>
+  </si>
+  <si>
+    <t>Close Link</t>
+  </si>
+  <si>
+    <t>availble to close job not visible to anonymous or candidate User</t>
+  </si>
+  <si>
+    <t>Add Button</t>
+  </si>
+  <si>
+    <t>availble to add job not visible to anonymous or candidate User</t>
+  </si>
+  <si>
+    <t>should take to add job page</t>
+  </si>
+  <si>
+    <t>Start Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start with Job List </t>
+  </si>
+  <si>
+    <t>We can add search funcationality later on</t>
+  </si>
+  <si>
+    <t>If not Logged Apply page askes for user details</t>
+  </si>
+  <si>
+    <t>On Clicling Apply</t>
+  </si>
+  <si>
+    <t>if logged in apply button show Candidate details</t>
+  </si>
+  <si>
+    <t>Employer Login</t>
+  </si>
+  <si>
+    <t>Logout button</t>
+  </si>
+  <si>
+    <t>If logged in logout button is present</t>
+  </si>
+  <si>
+    <t>Candidate Login</t>
+  </si>
+  <si>
+    <t>Same apply button is shown</t>
+  </si>
+  <si>
+    <t>Register on Apply Job page</t>
+  </si>
+  <si>
+    <t>should add used by API call</t>
+  </si>
+  <si>
+    <t>not implemented</t>
+  </si>
+  <si>
+    <t>Apply for Logged in user</t>
+  </si>
+  <si>
+    <t>Job Status page is show</t>
+  </si>
+  <si>
+    <t>currently showing dummy page</t>
+  </si>
+  <si>
+    <t>Below can be implemented For real app</t>
   </si>
 </sst>
 </file>
@@ -135,11 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,17 +543,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF99C3A-5C6A-44FB-9AD4-F832C69E4A24}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -534,47 +568,93 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -588,39 +668,39 @@
   <dimension ref="C29:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
